--- a/relatorio-automatico/worker/Relatorio_TR_USER4.xlsx
+++ b/relatorio-automatico/worker/Relatorio_TR_USER4.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-120" yWindow="-16320" windowWidth="29040" windowHeight="16440" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet name="Relatório de Consultas" sheetId="1" state="visible" r:id="rId1"/>
